--- a/trait_stressor_rankings/trait_stressor_adcap_specific_cco.xlsx
+++ b/trait_stressor_rankings/trait_stressor_adcap_specific_cco.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2000" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="1100" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="salinity" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="53">
   <si>
     <t>no</t>
   </si>
@@ -164,9 +164,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>score these as 1 = stressor occurs in this depth zone, 0 = stressor does not occur in this depth zone</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -180,6 +177,30 @@
   </si>
   <si>
     <t>Assume localized (e.g. desal outflow) but long duration</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>assume salinity stressor is limited to coastal waters</t>
+  </si>
+  <si>
+    <t>deep water already more acidic; current mixing across depths</t>
+  </si>
+  <si>
+    <t>perhaps shipping noise isn't important at depth but sonar pulses travel for miles</t>
+  </si>
+  <si>
+    <t>assume light pollution limited to the surface</t>
   </si>
 </sst>
 </file>
@@ -639,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -677,11 +698,11 @@
       <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -694,8 +715,8 @@
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -709,8 +730,8 @@
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -724,8 +745,8 @@
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
+      <c r="D5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -739,8 +760,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -754,8 +775,8 @@
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -769,8 +790,8 @@
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -784,8 +805,8 @@
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -799,8 +820,8 @@
       <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.75</v>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -814,8 +835,8 @@
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.5</v>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -829,8 +850,8 @@
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.25</v>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -844,8 +865,8 @@
       <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -859,8 +880,8 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
+      <c r="D14" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -875,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -893,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -909,9 +930,7 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
@@ -926,9 +945,7 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -943,9 +960,7 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
@@ -960,9 +975,7 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -977,9 +990,7 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
@@ -994,9 +1005,7 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
@@ -1011,9 +1020,7 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -1028,9 +1035,7 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
@@ -1045,9 +1050,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
@@ -1062,9 +1065,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
@@ -1076,8 +1077,8 @@
       <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1091,8 +1092,8 @@
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1112,7 +1113,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1149,11 +1150,11 @@
       <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1166,8 +1167,8 @@
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -1181,8 +1182,8 @@
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1196,8 +1197,8 @@
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1211,8 +1212,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
-        <v>0.5</v>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -1226,8 +1227,8 @@
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1241,8 +1242,8 @@
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -1256,8 +1257,8 @@
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -1271,8 +1272,8 @@
       <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.75</v>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -1286,8 +1287,8 @@
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.5</v>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1301,8 +1302,8 @@
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.25</v>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -1316,8 +1317,8 @@
       <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -1331,8 +1332,8 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
+      <c r="D14" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -1347,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -1365,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1379,11 +1380,9 @@
         <v>16</v>
       </c>
       <c r="D17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
@@ -1396,11 +1395,9 @@
         <v>15</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -1413,11 +1410,9 @@
         <v>14</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
@@ -1430,11 +1425,9 @@
         <v>12</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -1449,9 +1442,7 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
@@ -1466,9 +1457,7 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
@@ -1483,9 +1472,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -1500,9 +1487,7 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
@@ -1517,9 +1502,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
@@ -1534,9 +1517,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
@@ -1548,8 +1529,8 @@
       <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1563,8 +1544,8 @@
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1584,7 +1565,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD22"/>
+      <selection activeCell="E17" sqref="E17:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1621,11 +1602,11 @@
       <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1638,8 +1619,8 @@
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -1653,8 +1634,8 @@
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1668,8 +1649,8 @@
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1683,8 +1664,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
-        <v>0.5</v>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -1698,8 +1679,8 @@
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1713,8 +1694,8 @@
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -1729,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -1744,7 +1725,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -1759,7 +1740,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1774,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -1789,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -1804,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -1819,7 +1800,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -1837,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1853,9 +1834,7 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
@@ -1870,9 +1849,7 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -1887,9 +1864,7 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
@@ -1904,9 +1879,7 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -1921,9 +1894,7 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
@@ -1938,9 +1909,7 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
@@ -1955,9 +1924,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -1972,9 +1939,7 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
@@ -1989,9 +1954,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
@@ -2006,9 +1969,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
@@ -2021,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2036,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2055,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2093,11 +2054,11 @@
       <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2110,8 +2071,8 @@
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -2125,8 +2086,8 @@
       <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -2140,8 +2101,8 @@
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2155,8 +2116,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -2170,8 +2131,8 @@
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -2185,8 +2146,8 @@
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -2201,7 +2162,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -2216,7 +2177,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -2231,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -2246,7 +2207,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -2261,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -2276,7 +2237,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -2291,7 +2252,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -2309,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2325,9 +2286,7 @@
       <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
@@ -2342,9 +2301,7 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -2359,9 +2316,7 @@
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
@@ -2376,9 +2331,7 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
@@ -2393,9 +2346,7 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
@@ -2410,9 +2361,7 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
@@ -2427,9 +2376,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
@@ -2444,9 +2391,7 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
@@ -2461,9 +2406,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
@@ -2478,9 +2421,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
@@ -2493,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2508,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1"/>
     </row>
